--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7703B7C-E7E5-4651-8944-1280882987DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D778A8FA-AD00-4DC2-A3B7-E4EAC2E6544D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Loi" sheetId="2" r:id="rId1"/>
+    <sheet name="Loi_DeXuat" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="81">
   <si>
     <t>TT</t>
   </si>
@@ -85,15 +85,6 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>Không tạo được đối tác trong màn hình tạo mới yêu cầu xuất kho</t>
-  </si>
-  <si>
-    <t>Phiếu nhập kho/xuất kho</t>
-  </si>
-  <si>
-    <t>Bổ sung thêm trường Tổng số lượng khi in phiếu xuất/nhập kho</t>
-  </si>
-  <si>
     <t>Danh mục hàng hóa</t>
   </si>
   <si>
@@ -109,20 +100,176 @@
     <t>Thông tin kho</t>
   </si>
   <si>
-    <t>Bổ sung thêm "Báo cáo tồn kho theo định mức"</t>
-  </si>
-  <si>
     <t>Bổ sung thêm trường "Định mức tồn kho" (Số lượng tồn tối thiểu trong kho).</t>
   </si>
   <si>
-    <t>Hiển thị số lượng mã hàng đang tồn kho dưới định mức và số lượng mã hàng đang thiếu so với yêu cầu xuất kho</t>
-  </si>
-  <si>
     <t>In phiếu nhặt hàng</t>
   </si>
   <si>
+    <t>Thanh Thúy cũng yêu cầu</t>
+  </si>
+  <si>
+    <t>Báo cáo chi tiết hàng hóa trong giao dịch</t>
+  </si>
+  <si>
+    <t>Nhập kho</t>
+  </si>
+  <si>
+    <t>Import excel</t>
+  </si>
+  <si>
+    <t>Xem chi tiết hàng hóa</t>
+  </si>
+  <si>
+    <t>Báo cáo chi tiết hàng trong kho</t>
+  </si>
+  <si>
+    <t>Tồn kho</t>
+  </si>
+  <si>
+    <t>Cập nhật hàng hóa</t>
+  </si>
+  <si>
+    <t>Tìm kiếm/ Cập nhập</t>
+  </si>
+  <si>
+    <t>Thực xuất yêu cầu</t>
+  </si>
+  <si>
+    <t>Sử dụng account demo/123456 với khách hàng D.COM nhưng in phiếu thì lại ra phiếu của Thanh Thúy</t>
+  </si>
+  <si>
+    <t>Thực xuất</t>
+  </si>
+  <si>
+    <t>Thực nhập</t>
+  </si>
+  <si>
+    <t>Thông tin giao dịch</t>
+  </si>
+  <si>
+    <t>Báo cáo tổng hợp danh sách giao dịch</t>
+  </si>
+  <si>
+    <t>-Chỉnh template:
++ 2 cột tương đương nhau về nghiệp vụ thì nên bố trí cùng 1 màu.
++ Thiết lập Freeze Panes của biểu mẫu</t>
+  </si>
+  <si>
+    <t>Danh mục lý do xuất/nhập</t>
+  </si>
+  <si>
+    <t>Bổ sung thêm Danh mục lý do xuất/nhập kho. Lưu vào bảng CAT_REASON.</t>
+  </si>
+  <si>
+    <t>Quản lý xuất kho</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Không tạo được khách hàng nhận trong màn hình tạo mới yêu cầu xuất kho</t>
+  </si>
+  <si>
+    <t>Tạo/cập nhật yêu cầu</t>
+  </si>
+  <si>
+    <t>Tiện ích</t>
+  </si>
+  <si>
+    <t>Danh mục</t>
+  </si>
+  <si>
+    <t>Quản lý nhập kho</t>
+  </si>
+  <si>
+    <t>Hiển thị thêm trường "Nguồn gốc" trong file xuất ra.</t>
+  </si>
+  <si>
+    <t>Báo cáo tổng hợp danh sách tồn kho</t>
+  </si>
+  <si>
+    <t>Hiển thị thêm trường "Lý do xuất/nhập" trong file xuất ra.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Xuất kho</t>
+  </si>
+  <si>
+    <t>Nhớ check ảnh hưởng việc tạo mới khách hàng nhận trên màn hình Quản lý xuất kho\Xuất kho</t>
+  </si>
+  <si>
+    <t>In phiếu nhập kho/xuất kho</t>
+  </si>
+  <si>
+    <t>Thấp</t>
+  </si>
+  <si>
+    <t>Lish danh sách hàng hóa</t>
+  </si>
+  <si>
+    <t>Hiển thị thanh scoll ngang vì hiện tại có nhiều trường cần xem</t>
+  </si>
+  <si>
+    <t>Nhập kho/Xuất kho</t>
+  </si>
+  <si>
+    <t>Thêm cột khách hàng nhận (xuất)  và đối tác gửi hàng (nhập)</t>
+  </si>
+  <si>
+    <t>Bổ sung trường "Nguồn gốc" để biết serial gốc này được ghép từ những serial nào. Trường này là trường text.
+=&gt; Phải thêm trường này trên file template và giao diện list hàng hóa (cột cuối cùng).
+=&gt; Thực nhập thì lưu vào trường MJR_STOCK_TRANS_DETAIL.CONTENT và MJR_STOCK_GOODS_SERIAL.CONTENT</t>
+  </si>
+  <si>
+    <t>Bổ sung thêm trường Lý do xuất/nhập trên màn hình tìm kiếm và kết quả tìm kiếm.</t>
+  </si>
+  <si>
+    <t>Hiển thị thêm trường "Nguồn gốc" trên giao diện (thêm ở cột cuối cùng trên giao diện)</t>
+  </si>
+  <si>
+    <t>Hiển thị trường "Nguồn gốc" trên màn hình kết quả tìm kiếm và màn hình cập nhật hàng hóa để cho phép người dùng update lại thông tin.
+=&gt; Hiển thị thanh scoll ngang vì hiện tại có nhiều trường cần xem</t>
+  </si>
+  <si>
+    <t>Hiển thị thêm 2 cột. "Số lượng định mức tồn kho" và "Số lượng chênh lệch định mức".
++ Số lượng định mức tồn kho: Là số lượng định mức tồn kho của hàng hóa đó được cấu hình trong danh mục hàng hóa.
++ Số lượng chênh lệch định mức: Số lượng tồn kho - Số lượng định mức tồn kho.</t>
+  </si>
+  <si>
+    <t>Danh sách yêu cầu</t>
+  </si>
+  <si>
+    <t>Bổ sung thêm trường "Lý do". Trường này có các giá trị được lấy từ bảng CAT_REASON với type =2.
+=&gt; Lưu vào bảng MJR_ORDER.REASON_ID</t>
+  </si>
+  <si>
+    <t>Màn hình tạo mới: Hide trường "Đơn vị sử dụng" và để trường "Lý do" vào chỗ trường này.</t>
+  </si>
+  <si>
+    <t>Cập nhật trường "Lý do" vào bảng MJR_STOCK_TRANS.REASON_ID</t>
+  </si>
+  <si>
+    <t>Vì gọi tới chung 1 hàm nên để Duy làm</t>
+  </si>
+  <si>
+    <t>Hide trường "Đơn vị sử dụng" và để trường "Lý do" vào hàng bên trái.</t>
+  </si>
+  <si>
+    <t>Tạo mới/Cập nhật</t>
+  </si>
+  <si>
+    <t>AMOUNT_STORAGE_QUOTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Bổ sung thêm trường Tổng số lượng khi in phiếu xuất/nhập kho.
+2. Bổ sung thêm trường "Lý do" bên dưới trườn "Kho xuất" (sửa cho biểu mẫu dùng chung, không sửa trên biểu mẫu Thanh Thúy) </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Phiếu nhặt hàng hiển thị cột số lượng yêu cầu (mục đích để biết trong phiếu nhặt hàng đấy, số lượng nào ko đủ).
+      <t xml:space="preserve">1.Phiếu nhặt hàng thêm cột số lượng yêu cầu (mục đích để biết trong phiếu nhặt hàng đấy, số lượng nào ko đủ). Cột "Số lượng" -&gt; "Số lượng đáp ứng".
 </t>
     </r>
     <r>
@@ -134,7 +281,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Lưu ý: </t>
+      <t xml:space="preserve">Ví dụ: </t>
     </r>
     <r>
       <rPr>
@@ -144,56 +291,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Nếu yêu cầu là 12, nhưng trong kho chỉ có 11 được lưu ở 2 vị trí khác nhau =&gt; khi in phiếu nhặt hàng ra được tách làm 2 dòng là 5 và 6 thì cột số lượng yêu cầu cũng phải chia ra thành 1 dòng 5 và 1 dòng 7 =&gt; như thế mới biết được là mã này thiếu 1 cái trong kho.</t>
+      <t>Nếu yêu cầu là 12, nhưng trong kho chỉ có 11 được lưu ở 2 vị trí khác nhau =&gt; khi in phiếu nhặt hàng ra được tách làm 2 dòng với "Số lượng đáp ứng" là 5 và 6 thì cột số lượng yêu cầu cũng phải chia ra thành 1 dòng 5 và 1 dòng 7 =&gt; như thế mới biết được là mã này thiếu 1 cái trong kho.
+2. Phiếu nhặt hàng bổ sung thêm trường "Lý do" bên dưới trườn "Kho xuất" (sửa cho biểu mẫu dùng chung, không sửa trên biểu mẫu Thanh Thúy).</t>
     </r>
   </si>
   <si>
-    <t>Thanh Thúy cũng yêu cầu</t>
-  </si>
-  <si>
-    <t>Báo cáo chi tiết hàng hóa trong giao dịch</t>
-  </si>
-  <si>
-    <t>Thêm cột khách hàng nhận (hàng xuất)  và đối tác gửi hàng (hàng nhập)</t>
-  </si>
-  <si>
-    <t>Nhập kho</t>
-  </si>
-  <si>
-    <t>Import excel</t>
-  </si>
-  <si>
-    <t>Bổ sung trường "Nguồn gốc" để biết serial gốc này được ghép từ những serial này. Trường này là trường text</t>
-  </si>
-  <si>
-    <t>Xem chi tiết hàng hóa</t>
-  </si>
-  <si>
-    <t>Hiển thị thêm trường "Nguồn gốc"</t>
-  </si>
-  <si>
-    <t>Báo cáo chi tiết hàng trong kho</t>
-  </si>
-  <si>
-    <t>Tồn kho</t>
-  </si>
-  <si>
-    <t>Cập nhật hàng hóa</t>
-  </si>
-  <si>
-    <t>Tìm kiếm/ Cập nhập</t>
-  </si>
-  <si>
-    <t>Hiển thị trường "Nguồn gốc" trên màn hình tìm kiếm và màn hình cập nhật để cho phép người dùng update lại thông tin.</t>
-  </si>
-  <si>
-    <t>Tạo mới/Cập nhật/Tìm kiếm</t>
-  </si>
-  <si>
-    <t>Bổ sung thêm trường "Lý do xuất kho". Trường này có các giá trị được lấy từ bảng APP_PARAMS với par_type="EXPORT_REASON_TYPE"</t>
-  </si>
-  <si>
-    <t>Thực xuất yêu cầu</t>
+    <t>1.Tiêu chí tìm kiếm: Bổ sung thêm trường "Lý do" bên dưới trường "Người thực hiện". Trường này có các giá trị được lấy từ bảng CAT_REASON với type =2.
+2.Kết quả tìm kiếm: Bổ sung cột "Lý do" sau cột "Khách hàng nhận".</t>
+  </si>
+  <si>
+    <t>1.Bổ sung thêm trường "Lý do" trên giao diện. Trường này có các giá trị được lấy từ bảng CAT_REASON với type =2.
+2.Cập nhật trường "Lý do" vào bảng MJR_STOCK_TRANS.REASON_ID.</t>
+  </si>
+  <si>
+    <t>1.Bổ sung thêm trường "Lý do" trên giao diện. Trường này có các giá trị được lấy từ bảng CAT_REASON với type =1.
+2.Cập nhật trường "Lý do" vào bảng MJR_STOCK_TRANS.REASON_ID.</t>
+  </si>
+  <si>
+    <t>1.Bỏ mục "Doanh thu bán hàng theo ngày"
+2.Hiển thị số lượng mã hàng đang tồn kho dưới định mức và số lượng mã hàng đang thiếu so với yêu cầu xuất kho (theo prototype).</t>
   </si>
 </sst>
 </file>
@@ -289,16 +405,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -316,10 +429,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,31 +736,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
     <col min="6" max="6" width="55.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
-    <col min="8" max="9" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" customWidth="1"/>
-    <col min="11" max="11" width="19.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" customWidth="1"/>
+    <col min="10" max="10" width="8.08984375" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -659,378 +793,745 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H3" s="4">
         <v>44136</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="J3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="B13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="H3" s="5">
-        <v>44136</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="B14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>46</v>
+      <c r="D15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="4">
+        <v>44136</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{75FEF98B-C920-4027-A76B-EAC5F541C030}">
       <formula1>"Lỗi, Đề xuất"</formula1>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D778A8FA-AD00-4DC2-A3B7-E4EAC2E6544D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6847D30B-3F67-45D6-9490-E8B3BD26CF50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="83">
   <si>
     <t>TT</t>
   </si>
@@ -219,11 +219,6 @@
     <t>Thêm cột khách hàng nhận (xuất)  và đối tác gửi hàng (nhập)</t>
   </si>
   <si>
-    <t>Bổ sung trường "Nguồn gốc" để biết serial gốc này được ghép từ những serial nào. Trường này là trường text.
-=&gt; Phải thêm trường này trên file template và giao diện list hàng hóa (cột cuối cùng).
-=&gt; Thực nhập thì lưu vào trường MJR_STOCK_TRANS_DETAIL.CONTENT và MJR_STOCK_GOODS_SERIAL.CONTENT</t>
-  </si>
-  <si>
     <t>Bổ sung thêm trường Lý do xuất/nhập trên màn hình tìm kiếm và kết quả tìm kiếm.</t>
   </si>
   <si>
@@ -242,14 +237,7 @@
     <t>Danh sách yêu cầu</t>
   </si>
   <si>
-    <t>Bổ sung thêm trường "Lý do". Trường này có các giá trị được lấy từ bảng CAT_REASON với type =2.
-=&gt; Lưu vào bảng MJR_ORDER.REASON_ID</t>
-  </si>
-  <si>
     <t>Màn hình tạo mới: Hide trường "Đơn vị sử dụng" và để trường "Lý do" vào chỗ trường này.</t>
-  </si>
-  <si>
-    <t>Cập nhật trường "Lý do" vào bảng MJR_STOCK_TRANS.REASON_ID</t>
   </si>
   <si>
     <t>Vì gọi tới chung 1 hàm nên để Duy làm</t>
@@ -311,12 +299,31 @@
     <t>1.Bỏ mục "Doanh thu bán hàng theo ngày"
 2.Hiển thị số lượng mã hàng đang tồn kho dưới định mức và số lượng mã hàng đang thiếu so với yêu cầu xuất kho (theo prototype).</t>
   </si>
+  <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>Template: Thong_tin_chitiet_giao_dich.xlsx</t>
+  </si>
+  <si>
+    <t>Bổ sung trường "Nguồn gốc" để biết serial gốc này được ghép từ những serial nào hoặc thông tin bổ sung cho hàng hóa này là gì. Trường này là trường text.
+=&gt; Phải thêm trường này trên file template và giao diện list hàng hóa (cột cuối cùng).
+=&gt; Thực nhập thì lưu vào trường MJR_STOCK_TRANS_DETAIL.CONTENT và MJR_STOCK_GOODS_SERIAL.CONTENT
+MJR_STOCK_GOODS.CONTENT</t>
+  </si>
+  <si>
+    <t>Cập nhật trường "Lý do" vào 2 trường REASON_ID, REASON_NAME của bảng MJR_STOCK_TRANS</t>
+  </si>
+  <si>
+    <t>Bổ sung thêm trường "Lý do". Trường này có các giá trị được lấy từ bảng CAT_REASON với type =2.
+=&gt; Lưu vào bảng MJR_ORDER.REASON_ID và MJR_ORDER.REASON_NAME</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,8 +346,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +364,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -443,13 +463,30 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,134 +898,136 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>74</v>
+      <c r="J4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="6"/>
+      <c r="J5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="G6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="6"/>
+      <c r="J6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7"/>
+      <c r="J7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
@@ -1007,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
@@ -1023,11 +1062,11 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1040,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>20</v>
@@ -1060,7 +1099,7 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1073,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>20</v>
@@ -1093,7 +1132,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1126,10 +1165,10 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1159,7 +1198,7 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1172,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>20</v>
@@ -1188,24 +1227,24 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>20</v>
@@ -1220,27 +1259,27 @@
         <v>11</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>20</v>
@@ -1260,7 +1299,7 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1273,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>20</v>
@@ -1288,14 +1327,14 @@
         <v>11</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1308,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>20</v>
@@ -1323,14 +1362,14 @@
         <v>11</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1343,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>20</v>
@@ -1358,14 +1397,14 @@
         <v>11</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1378,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>20</v>
@@ -1400,10 +1439,10 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -1433,10 +1472,10 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1446,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>20</v>
@@ -1461,7 +1500,7 @@
         <v>11</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -1479,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>13</v>
@@ -1512,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>57</v>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6847D30B-3F67-45D6-9490-E8B3BD26CF50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1700D-952F-420F-A13C-43B09ACCAA4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Loi_DeXuat" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="87">
   <si>
     <t>TT</t>
   </si>
@@ -317,6 +317,19 @@
   <si>
     <t>Bổ sung thêm trường "Lý do". Trường này có các giá trị được lấy từ bảng CAT_REASON với type =2.
 =&gt; Lưu vào bảng MJR_ORDER.REASON_ID và MJR_ORDER.REASON_NAME</t>
+  </si>
+  <si>
+    <t>Thong_tin_chi_tiet_hang_ton_kho_all.xlsx</t>
+  </si>
+  <si>
+    <t>Tìm kiếm serial</t>
+  </si>
+  <si>
+    <t>Tìm kiếm/Xem lịch sử xuất/nhập</t>
+  </si>
+  <si>
+    <t>1. Bổ sung thêm trường "Nguồn gốc" trên màn hình kết quả tìm kiếm serial.
+2. Bổ sung thêm màn  hình lịch sử giao dịch xuất/nhập liên quan tới serial đó.</t>
   </si>
 </sst>
 </file>
@@ -374,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -410,22 +423,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -465,9 +467,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -484,9 +483,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,10 +774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
-  <dimension ref="A1:K23"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -829,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -862,7 +864,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -898,138 +900,138 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="18" t="s">
+      <c r="G4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="18" t="s">
+      <c r="G5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="G6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="18" t="s">
+      <c r="G7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="17" t="s">
         <v>78</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1062,7 +1064,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1096,105 +1098,107 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="B12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="G12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" ht="68.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1253,7 +1257,7 @@
         <v>21</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>11</v>
@@ -1288,14 +1292,14 @@
         <v>21</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1365,7 +1369,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1534,7 +1538,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="45.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1569,8 +1573,47 @@
         <v>25</v>
       </c>
     </row>
+    <row r="24" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4">
+        <v>44136</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J24" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Doan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{75FEF98B-C920-4027-A76B-EAC5F541C030}">
       <formula1>"Lỗi, Đề xuất"</formula1>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1700D-952F-420F-A13C-43B09ACCAA4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F29230-AE86-475B-8B24-4CA3C4DDBB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,9 +243,6 @@
     <t>Vì gọi tới chung 1 hàm nên để Duy làm</t>
   </si>
   <si>
-    <t>Hide trường "Đơn vị sử dụng" và để trường "Lý do" vào hàng bên trái.</t>
-  </si>
-  <si>
     <t>Tạo mới/Cập nhật</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   <si>
     <t>1. Bổ sung thêm trường "Nguồn gốc" trên màn hình kết quả tìm kiếm serial.
 2. Bổ sung thêm màn  hình lịch sử giao dịch xuất/nhập liên quan tới serial đó.</t>
+  </si>
+  <si>
+    <t>Template: Thong_tin_ds_giao_dich.xlsx</t>
   </si>
 </sst>
 </file>
@@ -774,11 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -831,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -864,7 +863,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -926,10 +925,10 @@
         <v>14</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -959,7 +958,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="17"/>
     </row>
@@ -992,7 +991,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K6" s="17"/>
     </row>
@@ -1025,13 +1024,13 @@
         <v>14</v>
       </c>
       <c r="J7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
@@ -1064,7 +1063,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>20</v>
@@ -1126,7 +1125,7 @@
         <v>14</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10" s="17"/>
     </row>
@@ -1159,10 +1158,10 @@
         <v>14</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -1194,11 +1193,11 @@
         <v>14</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" ht="68.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1242,13 +1241,13 @@
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>20</v>
@@ -1283,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>20</v>
@@ -1299,7 +1298,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>20</v>
@@ -1325,7 +1324,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>11</v>
@@ -1334,7 +1333,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>20</v>
@@ -1360,7 +1359,7 @@
         <v>21</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>11</v>
@@ -1369,7 +1368,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>20</v>
@@ -1395,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>11</v>
@@ -1440,74 +1439,74 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="G20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="6"/>
+      <c r="J20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="6" t="s">
+      <c r="G21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>13</v>
@@ -1538,7 +1537,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="45.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>57</v>
@@ -1581,16 +1580,16 @@
         <v>31</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>13</v>
@@ -1607,13 +1606,7 @@
       <c r="K24" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J24" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Doan"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{75FEF98B-C920-4027-A76B-EAC5F541C030}">
       <formula1>"Lỗi, Đề xuất"</formula1>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F29230-AE86-475B-8B24-4CA3C4DDBB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Loi_DeXuat" sheetId="2" r:id="rId1"/>
@@ -13,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$24</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -247,10 +246,6 @@
   </si>
   <si>
     <t>AMOUNT_STORAGE_QUOTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Bổ sung thêm trường Tổng số lượng khi in phiếu xuất/nhập kho.
-2. Bổ sung thêm trường "Lý do" bên dưới trườn "Kho xuất" (sửa cho biểu mẫu dùng chung, không sửa trên biểu mẫu Thanh Thúy) </t>
   </si>
   <si>
     <r>
@@ -331,11 +326,15 @@
   <si>
     <t>Template: Thong_tin_ds_giao_dich.xlsx</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.Bổ sung thêm trường Tổng số lượng khi in phiếu xuất/nhập kho. =&gt; done
+2. Bổ sung thêm trường "Lý do" bên dưới trườn "Kho xuất" (sửa cho biểu mẫu dùng chung, không sửa trên biểu mẫu Thanh Thúy) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,36 +765,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="55.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" customWidth="1"/>
-    <col min="10" max="10" width="8.08984375" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="55.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -859,11 +858,11 @@
         <v>15</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -892,13 +891,13 @@
         <v>15</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -925,13 +924,13 @@
         <v>14</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -958,11 +957,11 @@
         <v>14</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -991,11 +990,11 @@
         <v>14</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1024,13 +1023,13 @@
         <v>14</v>
       </c>
       <c r="J7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
@@ -1063,7 +1062,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>20</v>
@@ -1096,7 +1095,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -1125,11 +1124,11 @@
         <v>14</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -1158,13 +1157,13 @@
         <v>14</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1193,11 +1192,11 @@
         <v>14</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="68.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1230,7 +1229,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>20</v>
@@ -1265,7 +1264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>20</v>
@@ -1298,7 +1297,7 @@
       </c>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1315,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>20</v>
@@ -1333,7 +1332,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1350,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>20</v>
@@ -1368,7 +1367,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1385,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>20</v>
@@ -1403,7 +1402,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1438,7 +1437,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -1467,13 +1466,13 @@
         <v>14</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -1502,11 +1501,11 @@
         <v>14</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>13</v>
@@ -1537,7 +1536,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1554,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>57</v>
@@ -1572,7 +1571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="62.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1580,16 +1579,16 @@
         <v>31</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>13</v>
@@ -1606,12 +1605,12 @@
       <c r="K24" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J24"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{75FEF98B-C920-4027-A76B-EAC5F541C030}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"Lỗi, Đề xuất"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{0BCB52E2-9031-4C94-9AFD-7ED6FE65F201}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
       <formula1>"New, Resolve, Confirm, Close, Cancel, Accept"</formula1>
     </dataValidation>
   </dataValidations>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F29230-AE86-475B-8B24-4CA3C4DDBB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2037BCEE-97FD-4B7D-A016-C3D9644C38B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="86">
   <si>
     <t>TT</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>Màn hình tạo mới: Hide trường "Đơn vị sử dụng" và để trường "Lý do" vào chỗ trường này.</t>
-  </si>
-  <si>
-    <t>Vì gọi tới chung 1 hàm nên để Duy làm</t>
   </si>
   <si>
     <t>Tạo mới/Cập nhật</t>
@@ -774,10 +771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -830,7 +828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -863,7 +861,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -925,10 +923,10 @@
         <v>14</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -958,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" s="17"/>
     </row>
@@ -991,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="17"/>
     </row>
@@ -1024,13 +1022,13 @@
         <v>14</v>
       </c>
       <c r="J7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1047,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
@@ -1063,7 +1061,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1080,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>20</v>
@@ -1125,7 +1123,7 @@
         <v>14</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="17"/>
     </row>
@@ -1158,10 +1156,10 @@
         <v>14</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -1193,11 +1191,11 @@
         <v>14</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="68.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1241,13 +1239,13 @@
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>20</v>
@@ -1282,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>20</v>
@@ -1315,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>20</v>
@@ -1329,9 +1327,7 @@
       <c r="J16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -1350,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>20</v>
@@ -1385,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>20</v>
@@ -1467,10 +1463,10 @@
         <v>14</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1502,11 +1498,11 @@
         <v>14</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1521,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>13</v>
@@ -1537,7 +1533,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="45.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1554,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>57</v>
@@ -1580,16 +1576,16 @@
         <v>31</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>13</v>
@@ -1606,7 +1602,13 @@
       <c r="K24" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J24" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Doan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{75FEF98B-C920-4027-A76B-EAC5F541C030}">
       <formula1>"Lỗi, Đề xuất"</formula1>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2037BCEE-97FD-4B7D-A016-C3D9644C38B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F3604C-E278-490E-9EED-AEDC00BF7256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,8 +774,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1330,72 +1330,72 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="G17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="J17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="G18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="12" t="s">
+      <c r="J18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="22" t="s">
         <v>67</v>
       </c>
     </row>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99360B76-114C-422B-8361-55C3C9C68D97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC74E049-5101-4B4D-B0B4-3D89B6BA5923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -445,9 +445,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -773,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,134 +893,134 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="17" t="s">
+      <c r="G5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="17"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="17" t="s">
+      <c r="G7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1064,7 +1061,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1094,117 +1091,117 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="17" t="s">
+      <c r="G10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="17" t="s">
+      <c r="G11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="17" t="s">
+      <c r="G12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1228,173 +1225,173 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="G14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="J14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="G15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="12"/>
+      <c r="J15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="G16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="6"/>
+      <c r="J16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="17" t="s">
+      <c r="E17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="17" t="s">
+      <c r="G17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="17" t="s">
+      <c r="G18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1402,7 +1399,7 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1414,7 +1411,7 @@
       <c r="E19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -1429,77 +1426,77 @@
       <c r="J19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="15">
+    <row r="20" spans="1:11" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="17" t="s">
+      <c r="G20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
-        <v>20</v>
-      </c>
-      <c r="B21" s="20" t="s">
+    <row r="21" spans="1:11" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="17" t="s">
+      <c r="G21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
@@ -1515,7 +1512,7 @@
       <c r="E22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>75</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -1536,7 +1533,7 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1571,7 +1568,7 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="6" t="s">

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC74E049-5101-4B4D-B0B4-3D89B6BA5923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B55030-96C9-4260-A8BE-63D0FCF70E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Loi_DeXuat" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="87">
   <si>
     <t>TT</t>
   </si>
@@ -300,33 +300,37 @@
     <t>Template: Thong_tin_chitiet_giao_dich.xlsx</t>
   </si>
   <si>
-    <t>Bổ sung trường "Nguồn gốc" để biết serial gốc này được ghép từ những serial nào hoặc thông tin bổ sung cho hàng hóa này là gì. Trường này là trường text.
+    <t>Cập nhật trường "Lý do" vào 2 trường REASON_ID, REASON_NAME của bảng MJR_STOCK_TRANS</t>
+  </si>
+  <si>
+    <t>Bổ sung thêm trường "Lý do". Trường này có các giá trị được lấy từ bảng CAT_REASON với type =2.
+=&gt; Lưu vào bảng MJR_ORDER.REASON_ID và MJR_ORDER.REASON_NAME</t>
+  </si>
+  <si>
+    <t>Thong_tin_chi_tiet_hang_ton_kho_all.xlsx</t>
+  </si>
+  <si>
+    <t>Tìm kiếm serial</t>
+  </si>
+  <si>
+    <t>Tìm kiếm/Xem lịch sử xuất/nhập</t>
+  </si>
+  <si>
+    <t>1. Bổ sung thêm trường "Nguồn gốc" trên màn hình kết quả tìm kiếm serial.
+2. Bổ sung thêm màn  hình lịch sử giao dịch xuất/nhập liên quan tới serial đó.</t>
+  </si>
+  <si>
+    <t>Template: Thong_tin_ds_giao_dich.xlsx</t>
+  </si>
+  <si>
+    <t>1.Bổ sung trường "Nguồn gốc" để biết serial gốc này được ghép từ những serial nào hoặc thông tin bổ sung cho hàng hóa này là gì. Trường này là trường text.
 =&gt; Phải thêm trường này trên file template và giao diện list hàng hóa (cột cuối cùng).
 =&gt; Thực nhập thì lưu vào trường MJR_STOCK_TRANS_DETAIL.CONTENT và MJR_STOCK_GOODS_SERIAL.CONTENT
-MJR_STOCK_GOODS.CONTENT</t>
-  </si>
-  <si>
-    <t>Cập nhật trường "Lý do" vào 2 trường REASON_ID, REASON_NAME của bảng MJR_STOCK_TRANS</t>
-  </si>
-  <si>
-    <t>Bổ sung thêm trường "Lý do". Trường này có các giá trị được lấy từ bảng CAT_REASON với type =2.
-=&gt; Lưu vào bảng MJR_ORDER.REASON_ID và MJR_ORDER.REASON_NAME</t>
-  </si>
-  <si>
-    <t>Thong_tin_chi_tiet_hang_ton_kho_all.xlsx</t>
-  </si>
-  <si>
-    <t>Tìm kiếm serial</t>
-  </si>
-  <si>
-    <t>Tìm kiếm/Xem lịch sử xuất/nhập</t>
-  </si>
-  <si>
-    <t>1. Bổ sung thêm trường "Nguồn gốc" trên màn hình kết quả tìm kiếm serial.
-2. Bổ sung thêm màn  hình lịch sử giao dịch xuất/nhập liên quan tới serial đó.</t>
-  </si>
-  <si>
-    <t>Template: Thong_tin_ds_giao_dich.xlsx</t>
+MJR_STOCK_GOODS.CONTENT
+2. Kiểm tra trường hợp nhập kho thu hồi, serial đã bán đi nhưng được nhập lại thì không nhập được (serial cùng mã hàng-cùng khách hàng) =&gt; phải nhập lại được serial.</t>
+  </si>
+  <si>
+    <t>1. Khi thực xuất, nếu hàng có serial thì hiển thị màn hình cho phép nhập serial cho hàng hóa. Chỉ cần nhập serial hệ thống sẽ tự động tìm trong db để biết serial đó thuộc mã hàng nào.</t>
   </si>
 </sst>
 </file>
@@ -424,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -482,6 +486,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,7 +1064,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1074,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>20</v>
@@ -1155,7 +1162,7 @@
         <v>76</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -1241,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>20</v>
@@ -1309,7 +1316,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>20</v>
@@ -1462,7 +1469,7 @@
         <v>76</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1551,8 +1558,8 @@
       <c r="G23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="4">
-        <v>44136</v>
+      <c r="H23" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>15</v>
@@ -1572,22 +1579,22 @@
         <v>31</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="4">
-        <v>44136</v>
+      <c r="H24" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>14</v>
@@ -1597,8 +1604,41 @@
       </c>
       <c r="K24" s="6"/>
     </row>
+    <row r="25" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{75FEF98B-C920-4027-A76B-EAC5F541C030}">
       <formula1>"Lỗi, Đề xuất"</formula1>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B55030-96C9-4260-A8BE-63D0FCF70E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2EA0B6-0A07-4C49-9540-7D71CBCB1F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="88">
   <si>
     <t>TT</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>1. Khi thực xuất, nếu hàng có serial thì hiển thị màn hình cho phép nhập serial cho hàng hóa. Chỉ cần nhập serial hệ thống sẽ tự động tìm trong db để biết serial đó thuộc mã hàng nào.</t>
+  </si>
+  <si>
+    <t>1. Không import được file excel hàng hóa lên hệ thống mặc dù dùng file tải về từ hệ thống để nhập dữ liệu.</t>
   </si>
 </sst>
 </file>
@@ -775,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1572,37 +1575,37 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="6"/>
+      <c r="H24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
@@ -1636,6 +1639,39 @@
         <v>11</v>
       </c>
       <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2EA0B6-0A07-4C49-9540-7D71CBCB1F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006CB3B4-9478-4639-87B5-71094E6420A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Loi_DeXuat" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$26</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="90">
   <si>
     <t>TT</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>In phiếu nhặt hàng</t>
-  </si>
-  <si>
-    <t>Thanh Thúy cũng yêu cầu</t>
   </si>
   <si>
     <t>Báo cáo chi tiết hàng hóa trong giao dịch</t>
@@ -334,6 +331,19 @@
   </si>
   <si>
     <t>1. Không import được file excel hàng hóa lên hệ thống mặc dù dùng file tải về từ hệ thống để nhập dữ liệu.</t>
+  </si>
+  <si>
+    <t>1. 
+-Phiếu nhập thì đang ghi là "Tổng (thực xuất)" =&gt; chuyển thành "Tổng thực nhập".
+-Phiếu xuất: "Tổng (Thực xuất)" =&gt; "Tổng thực xuất".
+2. Chưa được</t>
+  </si>
+  <si>
+    <t>Xuất excel trên màn hình xem chi tiết 1 hàng hóa</t>
+  </si>
+  <si>
+    <t>1. Không hiển thị trường Mã hàng và Tên hàng trong file xuất ra.
+2. Bổ sung thêm trường "Nguồn gốc" vào file xuất ra.</t>
   </si>
 </sst>
 </file>
@@ -431,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -452,7 +462,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -778,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -835,56 +844,56 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="5"/>
+      <c r="J2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>13</v>
@@ -899,139 +908,139 @@
         <v>11</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="C6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
@@ -1039,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
@@ -1051,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
@@ -1071,20 +1080,20 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>49</v>
+      <c r="B9" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>20</v>
@@ -1101,328 +1110,328 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="D13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="G13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="20" t="s">
+      <c r="D18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="14">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
-        <v>17</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>31</v>
+      <c r="B19" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>65</v>
+      <c r="F19" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>20</v>
@@ -1436,77 +1445,77 @@
       <c r="J19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
+      <c r="K19" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="16" t="s">
+      <c r="E20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="14">
-        <v>20</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" s="21"/>
+      <c r="E21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
@@ -1522,8 +1531,8 @@
       <c r="E22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>75</v>
+      <c r="F22" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>13</v>
@@ -1539,27 +1548,27 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="104" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>47</v>
+      <c r="B23" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>21</v>
@@ -1571,60 +1580,60 @@
         <v>11</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="E24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="21"/>
+      <c r="H24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>86</v>
+      <c r="F25" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>20</v>
@@ -1645,19 +1654,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>87</v>
+      <c r="F26" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>20</v>
@@ -1673,8 +1682,41 @@
       </c>
       <c r="K26" s="6"/>
     </row>
+    <row r="27" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>27</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{75FEF98B-C920-4027-A76B-EAC5F541C030}">
       <formula1>"Lỗi, Đề xuất"</formula1>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006CB3B4-9478-4639-87B5-71094E6420A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1F3256-B430-4D53-8BDB-2FF216612B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="88">
   <si>
     <t>TT</t>
   </si>
@@ -337,13 +337,6 @@
 -Phiếu nhập thì đang ghi là "Tổng (thực xuất)" =&gt; chuyển thành "Tổng thực nhập".
 -Phiếu xuất: "Tổng (Thực xuất)" =&gt; "Tổng thực xuất".
 2. Chưa được</t>
-  </si>
-  <si>
-    <t>Xuất excel trên màn hình xem chi tiết 1 hàng hóa</t>
-  </si>
-  <si>
-    <t>1. Không hiển thị trường Mã hàng và Tên hàng trong file xuất ra.
-2. Bổ sung thêm trường "Nguồn gốc" vào file xuất ra.</t>
   </si>
 </sst>
 </file>
@@ -787,10 +780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
-  <dimension ref="A1:K27"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -843,7 +837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -911,7 +905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -944,7 +938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -975,7 +969,7 @@
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1008,7 +1002,7 @@
       </c>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1109,7 +1103,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1142,7 +1136,7 @@
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1177,7 +1171,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1210,7 +1204,7 @@
       </c>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="68.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1243,7 +1237,7 @@
       </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1278,7 +1272,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1311,7 +1305,7 @@
       </c>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1344,7 +1338,7 @@
       </c>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1379,7 +1373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1449,7 +1443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="9" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1484,7 +1478,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" s="9" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1583,7 +1577,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="62.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -1675,48 +1669,21 @@
         <v>21</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>27</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J26" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="New"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{75FEF98B-C920-4027-A76B-EAC5F541C030}">
       <formula1>"Lỗi, Đề xuất"</formula1>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1F3256-B430-4D53-8BDB-2FF216612B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F7A8C0-A67B-4B01-A224-CE3DFA04B5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,11 +148,6 @@
     <t>Báo cáo tổng hợp danh sách giao dịch</t>
   </si>
   <si>
-    <t>-Chỉnh template:
-+ 2 cột tương đương nhau về nghiệp vụ thì nên bố trí cùng 1 màu.
-+ Thiết lập Freeze Panes của biểu mẫu</t>
-  </si>
-  <si>
     <t>Danh mục lý do xuất/nhập</t>
   </si>
   <si>
@@ -337,6 +332,10 @@
 -Phiếu nhập thì đang ghi là "Tổng (thực xuất)" =&gt; chuyển thành "Tổng thực nhập".
 -Phiếu xuất: "Tổng (Thực xuất)" =&gt; "Tổng thực xuất".
 2. Chưa được</t>
+  </si>
+  <si>
+    <t>Template:
+Thong_tin_hang_trong_kho.xlsx</t>
   </si>
 </sst>
 </file>
@@ -434,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -455,9 +454,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -780,11 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -807,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -837,57 +832,57 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="G2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="15"/>
+      <c r="J2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>13</v>
@@ -902,139 +897,139 @@
         <v>11</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="C6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
@@ -1042,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
@@ -1054,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>13</v>
@@ -1074,8 +1069,8 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>48</v>
+      <c r="B9" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -1087,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>20</v>
@@ -1103,413 +1098,413 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
+    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="G13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="8" customFormat="1" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="E19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" ht="68.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="G20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="20"/>
+      <c r="E21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
@@ -1525,11 +1520,11 @@
       <c r="E22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>74</v>
+      <c r="F22" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>21</v>
@@ -1546,23 +1541,23 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>46</v>
+      <c r="B23" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>21</v>
@@ -1574,50 +1569,50 @@
         <v>11</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="62.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="E24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K24" s="20"/>
+      <c r="H24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1626,8 +1621,8 @@
       <c r="E25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>85</v>
+      <c r="F25" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>20</v>
@@ -1643,47 +1638,41 @@
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
+    <row r="26" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="6"/>
+      <c r="F26" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J26" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="New"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{75FEF98B-C920-4027-A76B-EAC5F541C030}">
       <formula1>"Lỗi, Đề xuất"</formula1>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F7A8C0-A67B-4B01-A224-CE3DFA04B5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Loi_DeXuat" sheetId="2" r:id="rId1"/>
@@ -13,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -341,7 +340,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -768,36 +767,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2F3C4-2138-42F6-A480-FF60B111EBE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="55.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" customWidth="1"/>
-    <col min="10" max="10" width="8.08984375" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="55.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -865,7 +864,7 @@
       </c>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -894,13 +893,13 @@
         <v>15</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -933,7 +932,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -964,7 +963,7 @@
       </c>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -997,7 +996,7 @@
       </c>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1061,11 +1060,11 @@
         <v>15</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1098,7 +1097,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1131,7 +1130,7 @@
       </c>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1166,7 +1165,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -1199,7 +1198,7 @@
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="68.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -1232,7 +1231,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -1300,7 +1299,7 @@
       </c>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -1333,7 +1332,7 @@
       </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="8" customFormat="1" ht="95.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -1438,7 +1437,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -1506,7 +1505,7 @@
       </c>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1537,7 +1536,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="104" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="103.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1566,13 +1565,13 @@
         <v>15</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="62.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -1605,7 +1604,7 @@
       </c>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1638,7 +1637,7 @@
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="62.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -1672,12 +1671,12 @@
       <c r="K26" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J26"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{75FEF98B-C920-4027-A76B-EAC5F541C030}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"Lỗi, Đề xuất"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{0BCB52E2-9031-4C94-9AFD-7ED6FE65F201}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
       <formula1>"New, Resolve, Confirm, Close, Cancel, Accept"</formula1>
     </dataValidation>
   </dataValidations>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58A6FCD-6A74-43E7-90CA-25AD59DC7D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2070BE0D-2E22-473C-8850-36480BBF19AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="101">
   <si>
     <t>TT</t>
   </si>
@@ -417,6 +417,13 @@
   </si>
   <si>
     <t>30/3/2020</t>
+  </si>
+  <si>
+    <t>Khi danh sách hàng hóa có sang trang tiếp theo thì cột số thứ tự bị reset về giá trị 1 dẫn tới người dùng ko nhìn được tổng cộng có bao nhiêu mã hàng hóa trong yêu cầu.
+Mong muốn: Không reset về 1 mà hiển thị đúng thứ tự.</t>
+  </si>
+  <si>
+    <t>17/4/2020</t>
   </si>
 </sst>
 </file>
@@ -878,10 +885,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1872,30 +1879,30 @@
       </c>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="25">
         <v>28</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>2</v>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>15</v>
@@ -1904,6 +1911,39 @@
         <v>11</v>
       </c>
       <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="25">
+        <v>29</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J29" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -1914,10 +1954,10 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29 E30:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Lỗi, Đề xuất"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J29 J30:J1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"New, Resolve, Confirm, Close, Cancel, Accept"</formula1>
     </dataValidation>
   </dataValidations>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2070BE0D-2E22-473C-8850-36480BBF19AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23B05241-5884-47F9-A941-BEB952BDE436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +11,10 @@
     <sheet name="Loi_DeXuat" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="102">
   <si>
     <t>TT</t>
   </si>
@@ -424,6 +425,11 @@
   </si>
   <si>
     <t>17/4/2020</t>
+  </si>
+  <si>
+    <t>Bị lỗi tương tự với phiếu nhập, phiếu xuất.
+PXK/MN_HCM_C1_TL/16052020/00000003
+PNK/MN_HCM_C1_TL/16052020/00000007</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -582,21 +588,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -888,7 +888,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1813,38 +1813,38 @@
       </c>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="21">
+    <row r="28" spans="1:11" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="G28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="24"/>
+      <c r="J28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
@@ -1879,23 +1879,23 @@
       </c>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A30" s="25">
+    <row r="30" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A30" s="22">
         <v>28</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="22" t="s">
         <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="24" t="s">
         <v>99</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -1910,25 +1910,27 @@
       <c r="J30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="25"/>
+      <c r="K30" s="25" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="25">
+      <c r="A31" s="22">
         <v>29</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="27" t="s">
+      <c r="E31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>97</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -1943,10 +1945,10 @@
       <c r="J31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="25"/>
+      <c r="K31" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J29" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J31" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="9">
       <filters>
         <filter val="New"/>

--- a/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
+++ b/5.Reference/200219_TrienKhai_TienLinh/200229_TienLinh_DeXuat.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23B05241-5884-47F9-A941-BEB952BDE436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0DC6EC-C87D-48AF-A5CD-825C7B8AB5A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi_DeXuat!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="103">
   <si>
     <t>TT</t>
   </si>
@@ -420,16 +419,19 @@
     <t>30/3/2020</t>
   </si>
   <si>
-    <t>Khi danh sách hàng hóa có sang trang tiếp theo thì cột số thứ tự bị reset về giá trị 1 dẫn tới người dùng ko nhìn được tổng cộng có bao nhiêu mã hàng hóa trong yêu cầu.
-Mong muốn: Không reset về 1 mà hiển thị đúng thứ tự.</t>
-  </si>
-  <si>
     <t>17/4/2020</t>
   </si>
   <si>
     <t>Bị lỗi tương tự với phiếu nhập, phiếu xuất.
 PXK/MN_HCM_C1_TL/16052020/00000003
 PNK/MN_HCM_C1_TL/16052020/00000007</t>
+  </si>
+  <si>
+    <t>Phiếu nhập kho/ phiếu xuất kho</t>
+  </si>
+  <si>
+    <t>Khi danh sách hàng hóa có sang trang tiếp theo thì cột số thứ tự bị reset về giá trị 1 dẫn tới người dùng ko nhìn được tổng cộng có bao nhiêu mã hàng hóa trong phiếuu.
+Mong muốn: Không reset về 1 mà hiển thị đúng thứ tự.</t>
   </si>
 </sst>
 </file>
@@ -528,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -588,7 +590,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -888,7 +889,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1880,29 +1881,29 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A30" s="22">
+      <c r="A30" s="21">
         <v>28</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>95</v>
+      <c r="B30" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="24" t="s">
-        <v>99</v>
+      <c r="F30" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>15</v>
@@ -1910,27 +1911,27 @@
       <c r="J30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="25" t="s">
-        <v>101</v>
+      <c r="K30" s="24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="22">
+      <c r="A31" s="21">
         <v>29</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="24" t="s">
+      <c r="E31" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>97</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -1945,7 +1946,7 @@
       <c r="J31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="22"/>
+      <c r="K31" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J31" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -1956,10 +1957,10 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29 E30:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Lỗi, Đề xuất"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J29 J30:J1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"New, Resolve, Confirm, Close, Cancel, Accept"</formula1>
     </dataValidation>
   </dataValidations>
